--- a/ECE445 Data.xlsx
+++ b/ECE445 Data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexl\OneDrive\Desktop\ECE445\MPPT-ECE445\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A52CAB2-214E-4409-A513-AF1BAA1392CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592DF852-29F0-4DF1-95F5-2B329BC1864C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{E127271C-D06F-4C6F-A674-8022F063787F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test" sheetId="2" r:id="rId1"/>
+    <sheet name="Calculations" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t xml:space="preserve">Transfer Function </t>
   </si>
@@ -61,13 +62,25 @@
   <si>
     <t>Iin</t>
   </si>
+  <si>
+    <t>Solar ADC Input</t>
+  </si>
+  <si>
+    <t>Battery ADC Input</t>
+  </si>
+  <si>
+    <t>Solar Measurement</t>
+  </si>
+  <si>
+    <t>Battery Measurement</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -78,15 +91,63 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -94,15 +155,246 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -110,6 +402,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -201,7 +498,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$3</c:f>
+              <c:f>Calculations!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -294,7 +591,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$9</c:f>
+              <c:f>Calculations!$C$4:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -321,7 +618,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$D$9</c:f>
+              <c:f>Calculations!$D$4:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -728,7 +1025,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$21</c:f>
+              <c:f>Calculations!$D$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -827,7 +1124,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$22:$C$25</c:f>
+              <c:f>Calculations!$C$22:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -848,7 +1145,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$22:$D$25</c:f>
+              <c:f>Calculations!$D$22:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2669,11 +2966,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F5D4F1-B37D-4E7E-ADD1-71EF3306FC6B}">
+  <dimension ref="B2:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="151" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B6" s="7">
+        <v>1.5633999999999999</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="19">
+        <f>(103.73*B6) - 150.23</f>
+        <v>11.941482000000008</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+    </row>
+    <row r="11" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B12" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B13" s="26"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B14" s="26"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B15" s="31">
+        <v>1.6140000000000001</v>
+      </c>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="27">
+        <f>(126.09*B15) - 179.08</f>
+        <v>24.429259999999999</v>
+      </c>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+    </row>
+    <row r="17" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B15:D17"/>
+    <mergeCell ref="E15:G17"/>
+    <mergeCell ref="B3:D5"/>
+    <mergeCell ref="E3:G5"/>
+    <mergeCell ref="B6:D8"/>
+    <mergeCell ref="E6:G8"/>
+    <mergeCell ref="B12:D14"/>
+    <mergeCell ref="E12:G14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AF9D84-8A5A-4945-A5DA-4697BD9A8F44}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2832,6 +3270,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d3559042-4f3b-4525-82fa-dfd0f5826bc4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F79BD5F4B214B24087EB8478293137F1" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="811446d343610cf49eb97ef6f4af7712">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d3559042-4f3b-4525-82fa-dfd0f5826bc4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e9bec914628fd7d106391ed92d836f84" ns3:_="">
     <xsd:import namespace="d3559042-4f3b-4525-82fa-dfd0f5826bc4"/>
@@ -2999,24 +3454,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39ACF778-4242-4A36-8000-76CC2FD4ABB0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="d3559042-4f3b-4525-82fa-dfd0f5826bc4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d3559042-4f3b-4525-82fa-dfd0f5826bc4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97134607-8260-4A3A-BE1B-AF81A5770463}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BF0375F-B8D6-477A-896C-2720F68068A2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3032,28 +3494,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97134607-8260-4A3A-BE1B-AF81A5770463}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39ACF778-4242-4A36-8000-76CC2FD4ABB0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="d3559042-4f3b-4525-82fa-dfd0f5826bc4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>